--- a/fichiers_xls/test_create_one_onglet_by_participant.xlsx
+++ b/fichiers_xls/test_create_one_onglet_by_participant.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Stroops_test (7)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="22300896" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="22303499" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="22302237" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -475,7 +472,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.66015625" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.72265625" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="21.66" customWidth="1" style="3" min="1" max="1"/>
   </cols>
@@ -1739,522 +1736,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Stimulus</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Choix</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4479</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5 _3 - 8 _ 9</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8814</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4 _7 - 3 _ 6</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3862</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7 _3 - 5 _ 4</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11797</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4 _5 - 5 _ 6</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2322</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7 _8 - 5 _ 9</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6286</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3 _7 - 2 _ 6</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>22300896</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15306</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7 _6 - 5 _ 4</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Stimulus</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Choix</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9003</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5 _3 - 8 _ 9</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11301</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4 _7 - 3 _ 6</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4477</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7 _3 - 5 _ 4</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4313</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4 _5 - 5 _ 6</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10197</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7 _8 - 5 _ 9</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16577</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3 _7 - 2 _ 6</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4209</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7 _6 - 5 _ 4</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5398</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5 _6 - 6 _ 7</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>22303499</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3195</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4 _9 - 1 _ 2</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Stimulus</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Choix</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>22302237</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4574</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5 _3 - 8 _ 9</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22302237</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7308</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4 _7 - 3 _ 6</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>22302237</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4518</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7 _3 - 5 _ 4</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>22302237</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5067</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4 _5 - 5 _ 6</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/fichiers_xls/test_create_one_onglet_by_participant.xlsx
+++ b/fichiers_xls/test_create_one_onglet_by_participant.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Stroops_test (7)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stroops_test (7)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/test_create_one_onglet_by_participant.xlsx
+++ b/fichiers_xls/test_create_one_onglet_by_participant.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.72265625" defaultRowHeight="14.25" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
